--- a/inventario_usuarios.xlsx
+++ b/inventario_usuarios.xlsx
@@ -464,6 +464,11 @@
           <t>Fivela dourada</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Bandeira do Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,9 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,6 +552,9 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -582,6 +593,9 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inventario_usuarios.xlsx
+++ b/inventario_usuarios.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>

--- a/inventario_usuarios.xlsx
+++ b/inventario_usuarios.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
